--- a/biology/Médecine/Membrane_obturatrice/Membrane_obturatrice.xlsx
+++ b/biology/Médecine/Membrane_obturatrice/Membrane_obturatrice.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La membrane obturatrice est une membrane fibreuse qui comble la plus grande partie du foramen obturé et contribue aux articulations fibreuses de la ceinture pelvienne.
 C'est un simple feuillet sur presque toute son étendue sauf dans sa partie supérieure où elle elle se dédouble en une bandelette sous-pubienne antérieure et un bandelette sous-pubienne postérieure. Ces deux bandelettes limitent, avec le sillon obturateur, le canal obturateur.
@@ -514,7 +526,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le canal obturateur peut être à l'origine d'une hernie.
 </t>
